--- a/doc/目标图例.xlsx
+++ b/doc/目标图例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanta/Documents/Project/AutocadPrice/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76799C-5753-C149-B83C-9175B6C32646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB24837-4EA7-6145-A787-AA5358BA90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18020" yWindow="880" windowWidth="17980" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>序号</t>
   </si>
@@ -206,105 +208,191 @@
     <t>LED集成吸顶灯</t>
   </si>
   <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>未标注</t>
+  </si>
+  <si>
+    <t>嵌入式白色钢板格栅荧光灯</t>
+  </si>
+  <si>
     <t>15-19.21</t>
   </si>
   <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>A型应急照明壁灯</t>
+  </si>
+  <si>
     <t>6.20.29.30.36</t>
   </si>
   <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>带电池的应急照明灯</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>单管荧光灯</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>壁灯</t>
+  </si>
+  <si>
+    <t>1.2.3.4.5.6.10.22.23</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>消防安全出口标志灯</t>
+  </si>
+  <si>
+    <t>9.45.46</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>三管荧光灯</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>消防疏散指示标志灯</t>
+  </si>
+  <si>
+    <t>23.24.25.39.42.47.48</t>
+  </si>
+  <si>
+    <t>ST06</t>
+  </si>
+  <si>
+    <t>单相三极带防溅盖安全型插座</t>
+  </si>
+  <si>
     <t>8.36.37</t>
   </si>
   <si>
-    <t>1.2.3.4.5.6.10.22.23</t>
-  </si>
-  <si>
-    <t>9.45.46</t>
-  </si>
-  <si>
-    <t>23.24.25.39.42.47.48</t>
-  </si>
-  <si>
-    <t>未标注</t>
+    <t>SW06</t>
+  </si>
+  <si>
+    <t>风机调速开关</t>
+  </si>
+  <si>
+    <t>6、9</t>
+  </si>
+  <si>
+    <t>22-26、47-49</t>
+  </si>
+  <si>
+    <t>15、47-49</t>
+  </si>
+  <si>
+    <t>56-67、55、46、44-41、39-36</t>
+  </si>
+  <si>
+    <t>6、8、54、55</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>15-19、42、47-52</t>
+  </si>
+  <si>
+    <t>10-12、54-55</t>
+  </si>
+  <si>
+    <t>22-25</t>
+  </si>
+  <si>
+    <t>嵌入式乳白面板荧光灯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>嵌入式白色钢板格栅荧光灯</t>
+    <t>疏散出口灯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L11</t>
+    <t>竖井壁灯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>单管荧光灯</t>
+    <t>L19</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A型应急照明壁灯</t>
+    <t>L20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>带电池的应急照明灯</t>
+    <t>L21</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>消防安全出口标志灯</t>
+    <t>声光控节能吸顶灯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>三管荧光灯</t>
+    <t>多信息复合标志灯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>消防疏散指示标志灯</t>
+    <t>LED面板灯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>壁灯</t>
+    <t>L22</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>风机调速开关</t>
+    <t>L23</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L12</t>
+    <t>L24</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L13</t>
+    <t>台面插座</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L14</t>
+    <t>带保护门单相二、三极IP54型插座</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L15</t>
+    <t>单相三极带开关安全型插座</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L16</t>
+    <t>单相三极带防溅盖插座</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L17</t>
+    <t>ST07</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>L18</t>
+    <t>ST08</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ST06</t>
+    <t>ST09</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SW06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单相三极带防溅盖安全型插座</t>
+    <t>ST10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -322,14 +410,12 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -337,14 +423,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -360,21 +444,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -384,28 +462,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -425,27 +503,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -456,37 +558,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +628,7 @@
         <xdr:cNvPr id="15133" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECF8DAE-1C87-BBFB-9E82-1EB51C7EA147}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -547,7 +649,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1079500" y="558800"/>
           <a:ext cx="609600" cy="622300"/>
@@ -600,7 +702,7 @@
         <xdr:cNvPr id="15134" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064A3A7F-2B6C-96EC-8777-773C58E0ECDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -621,7 +723,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1092200" y="2794000"/>
           <a:ext cx="584200" cy="609600"/>
@@ -674,7 +776,7 @@
         <xdr:cNvPr id="15135" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD342E5D-CF9A-1A70-1EE4-22FE0A7F2F4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -695,7 +797,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1079500" y="1333500"/>
           <a:ext cx="584200" cy="596900"/>
@@ -748,7 +850,7 @@
         <xdr:cNvPr id="15136" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE650ED-6881-0CD0-00EC-370D9AC60596}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000203B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +871,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1104900" y="5626100"/>
           <a:ext cx="723900" cy="685800"/>
@@ -822,7 +924,7 @@
         <xdr:cNvPr id="15137" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3080A414-7788-87A6-6D49-E5F5F0A97E40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000213B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +945,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1079500" y="4216400"/>
           <a:ext cx="685800" cy="660400"/>
@@ -896,7 +998,7 @@
         <xdr:cNvPr id="15138" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D07B11-C9B6-D989-6570-9F0AB00F5315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000223B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +1019,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1092200" y="4927600"/>
           <a:ext cx="660400" cy="660400"/>
@@ -970,7 +1072,7 @@
         <xdr:cNvPr id="15139" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3620800-5058-13AE-B6C8-83C374ED0E04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000233B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +1093,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1092200" y="2057400"/>
           <a:ext cx="609600" cy="609600"/>
@@ -1044,7 +1146,7 @@
         <xdr:cNvPr id="15140" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78E6EE6-FD6F-CD4E-46EE-1B188A56E8CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000243B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1167,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1104900" y="3543300"/>
           <a:ext cx="533400" cy="546100"/>
@@ -1118,7 +1220,7 @@
         <xdr:cNvPr id="15141" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D186E7-02A2-3DEA-6D01-DF9EA66906B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000253B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1241,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="1123950" y="7181850"/>
           <a:ext cx="609600" cy="546100"/>
@@ -1192,7 +1294,7 @@
         <xdr:cNvPr id="15142" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D277E6A-B7E8-D338-BA19-7936D860CA88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000263B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1315,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1092200" y="6400800"/>
           <a:ext cx="673100" cy="635000"/>
@@ -1266,7 +1368,7 @@
         <xdr:cNvPr id="15143" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E1CB0E-B357-83AB-9B09-D64C8157F83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000273B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1389,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1155700" y="10058400"/>
           <a:ext cx="596900" cy="596900"/>
@@ -1340,7 +1442,7 @@
         <xdr:cNvPr id="15144" name="图片 5" descr="clipboard/drawings/NULL">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70726ED-9313-CE6C-5093-893B90BB11F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000283B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1463,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1104900" y="7874000"/>
           <a:ext cx="711200" cy="571500"/>
@@ -1414,7 +1516,7 @@
         <xdr:cNvPr id="15145" name="图片 13" descr="clipboard/drawings/NULL">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A24F6E2-54D0-6ABD-430C-C43C1045D19D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000293B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1537,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1181100" y="9309100"/>
           <a:ext cx="520700" cy="584200"/>
@@ -1488,7 +1590,7 @@
         <xdr:cNvPr id="15146" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D9D5C3-ACCA-D532-3DA5-C972E48CA360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1611,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1168400" y="10795000"/>
           <a:ext cx="571500" cy="571500"/>
@@ -1562,7 +1664,7 @@
         <xdr:cNvPr id="15147" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3551AB1D-F112-A978-4A1E-B845C14B55C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1685,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1155700" y="8610600"/>
           <a:ext cx="584200" cy="584200"/>
@@ -1636,7 +1738,7 @@
         <xdr:cNvPr id="15148" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF670BBB-5EA9-B677-F0D9-41974372901E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1759,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1117600" y="11607800"/>
           <a:ext cx="685800" cy="355600"/>
@@ -1710,7 +1812,7 @@
         <xdr:cNvPr id="15149" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA496C8-5BFC-5050-09AB-C086318C06F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1833,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1117600" y="12230100"/>
           <a:ext cx="571500" cy="571500"/>
@@ -1784,7 +1886,7 @@
         <xdr:cNvPr id="15150" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52997B5C-2663-76B9-D694-8E4174470CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1907,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1155700" y="12915900"/>
           <a:ext cx="622300" cy="622300"/>
@@ -1858,7 +1960,7 @@
         <xdr:cNvPr id="15151" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1AA666-3C3D-4937-1A89-521C96ACFDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1981,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1130300" y="13677900"/>
           <a:ext cx="622300" cy="622300"/>
@@ -1932,7 +2034,7 @@
         <xdr:cNvPr id="15152" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD09197-30D4-2768-15BF-AB9587BC0135}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000303B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +2055,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1143000" y="14389100"/>
           <a:ext cx="558800" cy="558800"/>
@@ -2006,7 +2108,7 @@
         <xdr:cNvPr id="15153" name="ID_9B916DC2518547968BFBB92D30188C9F" descr="post_object_image_3236302596">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA8CFD0-B5BF-2032-1D74-21A314EDD270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000313B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2129,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1054100" y="15138400"/>
           <a:ext cx="800100" cy="508000"/>
@@ -2080,7 +2182,7 @@
         <xdr:cNvPr id="15154" name="ID_95CA2C1EEDC340F4B9C8E000509C894C" descr="post_object_image_3936521572">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E632DB03-66E6-A2D9-F15D-69DDC3AECF00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000323B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2203,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1143000" y="15824200"/>
           <a:ext cx="622300" cy="571500"/>
@@ -2154,7 +2256,7 @@
         <xdr:cNvPr id="15155" name="ID_3556FE89E3E54A5C8AB43D3D03540C3D" descr="post_object_image_110019359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631E9E29-90A2-E98F-5175-1D771BD5D817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000333B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2277,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1193800" y="16560800"/>
           <a:ext cx="533400" cy="558800"/>
@@ -2228,7 +2330,7 @@
         <xdr:cNvPr id="15156" name="ID_5F705C35F5DF49109EB4F07D61A19494" descr="post_object_image_995363406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033BA654-3D34-901C-E5E7-C4749D59DBEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000343B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2351,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1041400" y="17348200"/>
           <a:ext cx="825500" cy="431800"/>
@@ -2287,22 +2389,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>82550</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>791210</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>716280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15157" name="ID_51056531B1FA49D7A47F0B7B8A3065B6" descr="post_object_image_2880011336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BBF7D5-BA92-445D-77CA-41B08D21B831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000353B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,10 +2425,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="17932400"/>
-          <a:ext cx="736600" cy="711200"/>
+          <a:off x="1111250" y="21570950"/>
+          <a:ext cx="708660" cy="684530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2376,7 +2478,7 @@
         <xdr:cNvPr id="15158" name="ID_50FDE6A10835448F83B1D7C424F48C11" descr="post_object_image_2426209249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830334EC-8635-B341-D4EA-6925D9F3494A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000363B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2499,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1041400" y="18770600"/>
           <a:ext cx="825500" cy="482600"/>
@@ -2450,7 +2552,7 @@
         <xdr:cNvPr id="15159" name="ID_B01182263F1643B98B71813FF07F29E6" descr="post_object_image_3878844623">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F72E53C-A6CC-010D-F58F-ED1D0CE23C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000373B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2573,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1041400" y="19570700"/>
           <a:ext cx="825500" cy="330200"/>
@@ -2524,7 +2626,7 @@
         <xdr:cNvPr id="15160" name="ID_4B6CAFD331704D0597B49C81AF7EB194" descr="post_object_image_1772245933">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93FC3E8-890D-A4C1-F19A-017E8C55F2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000383B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2647,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1041400" y="20243800"/>
           <a:ext cx="825500" cy="431800"/>
@@ -2598,7 +2700,7 @@
         <xdr:cNvPr id="15161" name="ID_44A55EBC00F94EACB1BA1D21DAF69101" descr="post_object_image_59107625">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F563FA77-E390-AB75-F8A1-347B752E61DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000393B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2721,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1041400" y="20853400"/>
           <a:ext cx="825500" cy="647700"/>
@@ -2672,7 +2774,7 @@
         <xdr:cNvPr id="15162" name="ID_58E6F0E1878A452CA0C97EB693C5B5C9" descr="post_object_image_2930752091">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB28DEA-3C20-C666-7E6D-C386A95787F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,9 +2795,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="21615400"/>
+          <a:off x="1041400" y="17995900"/>
           <a:ext cx="825500" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2724,6 +2826,486 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>756920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1136650" y="22348825"/>
+          <a:ext cx="648970" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>802640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1108075" y="22996525"/>
+          <a:ext cx="723265" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>823595</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>705485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1060450" y="23758525"/>
+          <a:ext cx="791845" cy="657860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>643890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1063625" y="23910925"/>
+          <a:ext cx="788035" cy="443865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>751840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069975" y="25215850"/>
+          <a:ext cx="710565" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>803910</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>671830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1060450" y="25930225"/>
+          <a:ext cx="772160" cy="624205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>690880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098550" y="26654125"/>
+          <a:ext cx="714375" cy="643255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>775335</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>706755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="27368500"/>
+          <a:ext cx="724535" cy="668655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800735</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>592455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="28187650"/>
+          <a:ext cx="749935" cy="459105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>683895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1050925" y="28806775"/>
+          <a:ext cx="771525" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2981,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I32"/>
+  <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="57" customHeight="1"/>
@@ -2992,580 +3574,759 @@
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="11.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="247" width="11.1640625" customWidth="1"/>
-    <col min="248" max="248" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="248" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16" customHeight="1"/>
     <row r="2" spans="2:7" ht="27" customHeight="1">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="57" customHeight="1">
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="57" customHeight="1">
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="57" customHeight="1">
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="57" customHeight="1">
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="57" customHeight="1">
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="57" customHeight="1">
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="57" customHeight="1">
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="57" customHeight="1">
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
         <v>22.1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="57" customHeight="1">
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
         <v>23.24</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="57" customHeight="1">
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7">
         <v>23.24</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="57" customHeight="1">
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
         <v>8.9</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="57" customHeight="1">
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="57" customHeight="1">
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="57" customHeight="1">
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="57" customHeight="1">
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="57" customHeight="1">
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7">
         <v>26.27</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="57" customHeight="1">
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="57" customHeight="1">
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="57" customHeight="1">
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="57" customHeight="1">
-      <c r="B22" s="6">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="57" customHeight="1">
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <v>21</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14">
         <v>8</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>64</v>
+      <c r="E23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="57" customHeight="1">
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>22</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>67</v>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="57" customHeight="1">
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>23</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>68</v>
+      <c r="G25" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="57" customHeight="1">
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>24</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14">
         <v>9.23</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="E26" s="15" t="s">
         <v>66</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="57" customHeight="1">
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>25</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14">
         <v>36.369999999999997</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>72</v>
+      <c r="E27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="57" customHeight="1">
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>26</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="2:9" ht="57" customHeight="1">
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>27</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>70</v>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="57" customHeight="1">
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>28</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14">
         <v>22</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>71</v>
+      <c r="E30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="57" customHeight="1">
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>29</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>83</v>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57" customHeight="1">
-      <c r="B32" s="8">
+      <c r="B32" s="12">
         <v>30</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>73</v>
+      <c r="F32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="57" customHeight="1">
+      <c r="B33" s="12">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="57" customHeight="1">
+      <c r="B34" s="12">
+        <v>32</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="67" customHeight="1">
+      <c r="B35" s="12">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="57" customHeight="1">
+      <c r="B36" s="12">
+        <v>34</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="57" customHeight="1">
+      <c r="B37" s="12">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="57" customHeight="1">
+      <c r="B38" s="12">
+        <v>36</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="7">
+        <v>8</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="57" customHeight="1">
+      <c r="B39" s="12">
+        <v>37</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="57" customHeight="1">
+      <c r="B40" s="12">
+        <v>38</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="57" customHeight="1">
+      <c r="B41" s="12">
+        <v>39</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="57" customHeight="1">
+      <c r="B42" s="12">
+        <v>40</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3588,13 +4349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3603,18 +4364,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="5"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
@@ -3636,24 +4407,14 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/doc/目标图例.xlsx
+++ b/doc/目标图例.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanta/Documents/Project/AutocadPrice/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB24837-4EA7-6145-A787-AA5358BA90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0270B3F7-4DFA-804B-A1C0-C01BA1AF2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18020" yWindow="880" windowWidth="17980" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -52,6 +51,12 @@
     <t>状态</t>
   </si>
   <si>
+    <t>图例名称</t>
+  </si>
+  <si>
+    <t>已标注数量</t>
+  </si>
+  <si>
     <t>1.5.36</t>
   </si>
   <si>
@@ -64,6 +69,9 @@
     <t>普通照明灯</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>8.9.15</t>
   </si>
   <si>
@@ -211,189 +219,274 @@
     <t>L11</t>
   </si>
   <si>
+    <t>嵌入式白色钢板格栅荧光灯</t>
+  </si>
+  <si>
+    <t>15-19.21</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>A型应急照明壁灯</t>
+  </si>
+  <si>
+    <t>6.20.29.30.36</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>带电池的应急照明灯</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>单管荧光灯</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>壁灯</t>
+  </si>
+  <si>
+    <t>1.2.3.4.5.6.10.22.23</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>消防安全出口标志灯</t>
+  </si>
+  <si>
+    <t>9.45.46</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>三管荧光灯</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>消防疏散指示标志灯</t>
+  </si>
+  <si>
+    <t>23.24.25.39.42.47.48</t>
+  </si>
+  <si>
+    <t>ST06</t>
+  </si>
+  <si>
+    <t>单相三极带防溅盖安全型插座</t>
+  </si>
+  <si>
+    <t>8.36.37</t>
+  </si>
+  <si>
+    <t>SW06</t>
+  </si>
+  <si>
+    <t>风机调速开关</t>
+  </si>
+  <si>
+    <t>6、9</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>嵌入式乳白面板荧光灯</t>
+  </si>
+  <si>
+    <t>22-26、47-49</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>竖井壁灯</t>
+  </si>
+  <si>
+    <t>56-67、55、46、44-41、39-36</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>疏散出口灯</t>
+  </si>
+  <si>
+    <t>10-12、54-55</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>声光控节能吸顶灯</t>
+  </si>
+  <si>
+    <t>22-25</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>多信息复合标志灯</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>LED面板灯</t>
+  </si>
+  <si>
+    <t>6、8、54、55</t>
+  </si>
+  <si>
+    <t>ST07</t>
+  </si>
+  <si>
+    <t>台面插座</t>
+  </si>
+  <si>
+    <t>15、47-49</t>
+  </si>
+  <si>
+    <t>ST08</t>
+  </si>
+  <si>
+    <t>带保护门单相二、三极IP54型插座</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>ST09</t>
+  </si>
+  <si>
+    <t>单相三极带开关安全型插座</t>
+  </si>
+  <si>
+    <t>15-19、42、47-52</t>
+  </si>
+  <si>
+    <t>ST10</t>
+  </si>
+  <si>
+    <t>单相三极带防溅盖插座</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>6、8</t>
+  </si>
+  <si>
+    <t>27、43-44</t>
+  </si>
+  <si>
+    <t>40、45</t>
+  </si>
+  <si>
+    <t>7、45</t>
+  </si>
+  <si>
+    <t>6、8、29、30、34</t>
+  </si>
+  <si>
+    <t>6、8、29</t>
+  </si>
+  <si>
+    <t>1-5、10-13、15-18、20、26、27</t>
+  </si>
+  <si>
+    <t>单管荧光灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>未标注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>嵌入式白色钢板格栅荧光灯</t>
-  </si>
-  <si>
-    <t>15-19.21</t>
-  </si>
-  <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>A型应急照明壁灯</t>
-  </si>
-  <si>
-    <t>6.20.29.30.36</t>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>带电池的应急照明灯</t>
-  </si>
-  <si>
-    <t>L14</t>
-  </si>
-  <si>
-    <t>单管荧光灯</t>
-  </si>
-  <si>
-    <t>L15</t>
-  </si>
-  <si>
-    <t>壁灯</t>
-  </si>
-  <si>
-    <t>1.2.3.4.5.6.10.22.23</t>
-  </si>
-  <si>
-    <t>L16</t>
-  </si>
-  <si>
-    <t>消防安全出口标志灯</t>
-  </si>
-  <si>
-    <t>9.45.46</t>
-  </si>
-  <si>
-    <t>L17</t>
-  </si>
-  <si>
-    <t>三管荧光灯</t>
-  </si>
-  <si>
-    <t>L18</t>
-  </si>
-  <si>
-    <t>消防疏散指示标志灯</t>
-  </si>
-  <si>
-    <t>23.24.25.39.42.47.48</t>
-  </si>
-  <si>
-    <t>ST06</t>
-  </si>
-  <si>
-    <t>单相三极带防溅盖安全型插座</t>
-  </si>
-  <si>
-    <t>8.36.37</t>
-  </si>
-  <si>
-    <t>SW06</t>
-  </si>
-  <si>
-    <t>风机调速开关</t>
-  </si>
-  <si>
-    <t>6、9</t>
-  </si>
-  <si>
-    <t>22-26、47-49</t>
-  </si>
-  <si>
-    <t>15、47-49</t>
-  </si>
-  <si>
-    <t>56-67、55、46、44-41、39-36</t>
-  </si>
-  <si>
-    <t>6、8、54、55</t>
-  </si>
-  <si>
-    <t>15-19</t>
-  </si>
-  <si>
-    <t>15-19、42、47-52</t>
-  </si>
-  <si>
-    <t>10-12、54-55</t>
-  </si>
-  <si>
-    <t>22-25</t>
-  </si>
-  <si>
-    <t>嵌入式乳白面板荧光灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>疏散出口灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>竖井壁灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>声光控节能吸顶灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多信息复合标志灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED面板灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>台面插座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>带保护门单相二、三极IP54型插座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单相三极带开关安全型插座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单相三极带防溅盖插座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST08</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST09</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5防水防尘高效节能双管荧光灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳池用防潮灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单管IP54型LED灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层标志灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双联单控开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联单控开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L26</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L27</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L29</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L31</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>带保护门单相二、三极插座</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -410,12 +503,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -423,22 +518,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -452,7 +549,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -475,56 +572,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,43 +606,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +678,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="558800"/>
+          <a:off x="1010920" y="558800"/>
           <a:ext cx="609600" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -725,7 +752,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="2794000"/>
+          <a:off x="1023620" y="2794000"/>
           <a:ext cx="584200" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -799,7 +826,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="1333500"/>
+          <a:off x="1010920" y="1333500"/>
           <a:ext cx="584200" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -841,7 +868,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>698500</xdr:rowOff>
     </xdr:to>
@@ -873,8 +900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="5626100"/>
-          <a:ext cx="723900" cy="685800"/>
+          <a:off x="1036320" y="5626100"/>
+          <a:ext cx="718185" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -947,7 +974,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="4216400"/>
+          <a:off x="1010920" y="4216400"/>
           <a:ext cx="685800" cy="660400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1021,7 +1048,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="4927600"/>
+          <a:off x="1023620" y="4927600"/>
           <a:ext cx="660400" cy="660400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1095,7 +1122,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="2057400"/>
+          <a:off x="1023620" y="2057400"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1169,7 +1196,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="3543300"/>
+          <a:off x="1036320" y="3543300"/>
           <a:ext cx="533400" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1243,7 +1270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1123950" y="7181850"/>
+          <a:off x="1055370" y="7181850"/>
           <a:ext cx="609600" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1317,7 +1344,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="6400800"/>
+          <a:off x="1023620" y="6400800"/>
           <a:ext cx="673100" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,7 +1418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="10058400"/>
+          <a:off x="1087120" y="10058400"/>
           <a:ext cx="596900" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1465,7 +1492,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="7874000"/>
+          <a:off x="1036320" y="7874000"/>
           <a:ext cx="711200" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1539,7 +1566,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181100" y="9309100"/>
+          <a:off x="1112520" y="9309100"/>
           <a:ext cx="520700" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1613,7 +1640,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1168400" y="10795000"/>
+          <a:off x="1099820" y="10795000"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1687,7 +1714,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="8610600"/>
+          <a:off x="1087120" y="8610600"/>
           <a:ext cx="584200" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1761,7 +1788,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117600" y="11607800"/>
+          <a:off x="1049020" y="11607800"/>
           <a:ext cx="685800" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1835,7 +1862,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117600" y="12230100"/>
+          <a:off x="1049020" y="12230100"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1909,7 +1936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="12915900"/>
+          <a:off x="1087120" y="12915900"/>
           <a:ext cx="622300" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1983,7 +2010,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="13677900"/>
+          <a:off x="1061720" y="13677900"/>
           <a:ext cx="622300" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2057,7 +2084,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="14389100"/>
+          <a:off x="1074420" y="14389100"/>
           <a:ext cx="558800" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2099,7 +2126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>622300</xdr:rowOff>
     </xdr:to>
@@ -2131,8 +2158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="15138400"/>
-          <a:ext cx="800100" cy="508000"/>
+          <a:off x="985520" y="15138400"/>
+          <a:ext cx="768985" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2205,7 +2232,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="15824200"/>
+          <a:off x="1074420" y="15824200"/>
           <a:ext cx="622300" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2279,7 +2306,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1193800" y="16560800"/>
+          <a:off x="1125220" y="16560800"/>
           <a:ext cx="533400" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2321,7 +2348,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
@@ -2353,8 +2380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="17348200"/>
-          <a:ext cx="825500" cy="431800"/>
+          <a:off x="972820" y="17348200"/>
+          <a:ext cx="781685" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2427,7 +2454,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1111250" y="21570950"/>
+          <a:off x="1042670" y="21570950"/>
           <a:ext cx="708660" cy="684530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2469,7 +2496,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -2501,8 +2528,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="18770600"/>
-          <a:ext cx="825500" cy="482600"/>
+          <a:off x="972820" y="18770600"/>
+          <a:ext cx="781685" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2543,7 +2570,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
@@ -2575,8 +2602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="19570700"/>
-          <a:ext cx="825500" cy="330200"/>
+          <a:off x="972820" y="19570700"/>
+          <a:ext cx="781685" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2617,7 +2644,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
@@ -2649,8 +2676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="20243800"/>
-          <a:ext cx="825500" cy="431800"/>
+          <a:off x="972820" y="20243800"/>
+          <a:ext cx="781685" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2691,7 +2718,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
@@ -2723,8 +2750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="20853400"/>
-          <a:ext cx="825500" cy="647700"/>
+          <a:off x="972820" y="20853400"/>
+          <a:ext cx="781685" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2765,7 +2792,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2797,8 +2824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="17995900"/>
-          <a:ext cx="825500" cy="647700"/>
+          <a:off x="972820" y="17995900"/>
+          <a:ext cx="781685" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2864,7 +2891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1136650" y="22348825"/>
+          <a:off x="1068070" y="22348825"/>
           <a:ext cx="648970" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2887,7 +2914,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>802640</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>714375</xdr:rowOff>
     </xdr:to>
@@ -2912,8 +2939,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1108075" y="22996525"/>
-          <a:ext cx="723265" cy="704850"/>
+          <a:off x="1039495" y="23275925"/>
+          <a:ext cx="715010" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,7 +2962,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>823595</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>705485</xdr:rowOff>
     </xdr:to>
@@ -2960,8 +2987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1060450" y="23758525"/>
-          <a:ext cx="791845" cy="657860"/>
+          <a:off x="991870" y="27847925"/>
+          <a:ext cx="762635" cy="657860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,7 +3010,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>822960</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>643890</xdr:rowOff>
     </xdr:to>
@@ -3008,8 +3035,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1063625" y="23910925"/>
-          <a:ext cx="788035" cy="443865"/>
+          <a:off x="995045" y="24253825"/>
+          <a:ext cx="759460" cy="443865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3056,7 +3083,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1069975" y="25215850"/>
+          <a:off x="1001395" y="27133550"/>
           <a:ext cx="710565" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3079,7 +3106,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>803910</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>671830</xdr:rowOff>
     </xdr:to>
@@ -3104,8 +3131,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1060450" y="25930225"/>
-          <a:ext cx="772160" cy="624205"/>
+          <a:off x="991870" y="28571825"/>
+          <a:ext cx="762635" cy="624205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3152,7 +3179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1098550" y="26654125"/>
+          <a:off x="1029970" y="29295725"/>
           <a:ext cx="714375" cy="643255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3200,7 +3227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="27368500"/>
+          <a:off x="1010920" y="24942800"/>
           <a:ext cx="724535" cy="668655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3223,7 +3250,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800735</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>592455</xdr:rowOff>
     </xdr:to>
@@ -3248,8 +3275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="28187650"/>
-          <a:ext cx="749935" cy="459105"/>
+          <a:off x="1010920" y="25761950"/>
+          <a:ext cx="743585" cy="459105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3296,8 +3323,488 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1050925" y="28806775"/>
+          <a:off x="982345" y="26381075"/>
           <a:ext cx="771525" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1087120" y="30048200"/>
+          <a:ext cx="571500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>775970</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>570230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1020445" y="30848300"/>
+          <a:ext cx="715645" cy="417830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>785495</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>581660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1001395" y="31524575"/>
+          <a:ext cx="744220" cy="476885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>461645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1029970" y="32296100"/>
+          <a:ext cx="724535" cy="309245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>573405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1163320" y="32972375"/>
+          <a:ext cx="476885" cy="468630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>514985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077595" y="33782000"/>
+          <a:ext cx="629285" cy="324485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>619760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1106170" y="34343975"/>
+          <a:ext cx="590550" cy="591185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781685</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>648335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077595" y="35172650"/>
+          <a:ext cx="664210" cy="514985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>756920</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>570865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1039495" y="35839400"/>
+          <a:ext cx="677545" cy="494665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="991870" y="36553775"/>
+          <a:ext cx="723900" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3563,27 +4070,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="57" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="248" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="245" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" customHeight="1"/>
-    <row r="2" spans="2:7" ht="27" customHeight="1">
+    <row r="1" spans="2:8" ht="16" customHeight="1"/>
+    <row r="2" spans="2:8" ht="27" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3599,45 +4106,56 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" ht="57" customHeight="1">
+    <row r="3" spans="2:8" ht="57" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="57" customHeight="1">
+    <row r="4" spans="2:8" ht="57" customHeight="1">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>440</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="57" customHeight="1">
+    <row r="5" spans="2:8" ht="57" customHeight="1">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -3646,88 +4164,103 @@
         <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="5">
+        <v>350</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="57" customHeight="1">
+    <row r="6" spans="2:8" ht="57" customHeight="1">
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="57" customHeight="1">
+    <row r="7" spans="2:8" ht="57" customHeight="1">
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="H7" s="5">
+        <v>617</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="57" customHeight="1">
+    <row r="8" spans="2:8" ht="57" customHeight="1">
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="H8" s="5">
+        <v>755</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="57" customHeight="1">
+    <row r="9" spans="2:8" ht="57" customHeight="1">
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H9" s="5">
+        <v>536</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="57" customHeight="1">
+    <row r="10" spans="2:8" ht="57" customHeight="1">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -3736,16 +4269,19 @@
         <v>22.1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="H10" s="5">
+        <v>422</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="57" customHeight="1">
+    <row r="11" spans="2:8" ht="57" customHeight="1">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -3754,16 +4290,19 @@
         <v>23.24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="H11" s="5">
+        <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="57" customHeight="1">
+    <row r="12" spans="2:8" ht="57" customHeight="1">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -3772,16 +4311,19 @@
         <v>23.24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H12" s="5">
+        <v>532</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="57" customHeight="1">
+    <row r="13" spans="2:8" ht="57" customHeight="1">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -3790,88 +4332,103 @@
         <v>8.9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H13" s="5">
+        <v>563</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="57" customHeight="1">
+    <row r="14" spans="2:8" ht="57" customHeight="1">
       <c r="B14" s="5">
         <v>12</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H14" s="5">
+        <v>213</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="57" customHeight="1">
+    <row r="15" spans="2:8" ht="57" customHeight="1">
       <c r="B15" s="5">
         <v>13</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="H15" s="5">
+        <v>500</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="57" customHeight="1">
+    <row r="16" spans="2:8" ht="57" customHeight="1">
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="H16" s="5">
+        <v>396</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="57" customHeight="1">
+    <row r="17" spans="2:8" ht="57" customHeight="1">
       <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H17" s="5">
+        <v>267</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="57" customHeight="1">
+    <row r="18" spans="2:8" ht="57" customHeight="1">
       <c r="B18" s="5">
         <v>16</v>
       </c>
@@ -3880,451 +4437,714 @@
         <v>26.27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="H18" s="5">
+        <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="57" customHeight="1">
+    <row r="19" spans="2:8" ht="57" customHeight="1">
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="H19" s="5">
+        <v>500</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="57" customHeight="1">
+    <row r="20" spans="2:8" ht="57" customHeight="1">
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="H20" s="5">
+        <v>300</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="57" customHeight="1">
+    <row r="21" spans="2:8" ht="57" customHeight="1">
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="H21" s="5">
+        <v>433</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="57" customHeight="1">
-      <c r="B22" s="9">
+    <row r="22" spans="2:8" ht="57" customHeight="1">
+      <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>55</v>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="5">
+        <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="57" customHeight="1">
-      <c r="B23" s="12">
+    <row r="23" spans="2:8" ht="57" customHeight="1">
+      <c r="B23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14">
+      <c r="C23" s="8"/>
+      <c r="D23" s="7">
         <v>8</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>59</v>
+      <c r="E23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="5">
+        <v>300</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="57" customHeight="1">
-      <c r="B24" s="12">
+    <row r="24" spans="2:8" ht="57" customHeight="1">
+      <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="5">
+        <v>256</v>
+      </c>
     </row>
-    <row r="25" spans="2:9" ht="57" customHeight="1">
-      <c r="B25" s="12">
+    <row r="25" spans="2:8" ht="57" customHeight="1">
+      <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="E25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="5">
+        <v>227</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" ht="57" customHeight="1">
-      <c r="B26" s="12">
+    <row r="26" spans="2:8" ht="57" customHeight="1">
+      <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
+      <c r="C26" s="8"/>
+      <c r="D26" s="7">
         <v>9.23</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>67</v>
+      <c r="E26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="5">
+        <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="57" customHeight="1">
-      <c r="B27" s="12">
+    <row r="27" spans="2:8" ht="57" customHeight="1">
+      <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7">
         <v>36.369999999999997</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>69</v>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="5">
+        <v>288</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="57" customHeight="1">
-      <c r="B28" s="12">
+    <row r="28" spans="2:8" ht="57" customHeight="1">
+      <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="19"/>
+      <c r="E28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="5">
+        <v>300</v>
+      </c>
     </row>
-    <row r="29" spans="2:9" ht="57" customHeight="1">
-      <c r="B29" s="12">
+    <row r="29" spans="2:8" ht="57" customHeight="1">
+      <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="E29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="5">
+        <v>297</v>
+      </c>
     </row>
-    <row r="30" spans="2:9" ht="57" customHeight="1">
-      <c r="B30" s="12">
+    <row r="30" spans="2:8" ht="57" customHeight="1">
+      <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14">
+      <c r="C30" s="8"/>
+      <c r="D30" s="7">
         <v>22</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>77</v>
+      <c r="E30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="5">
+        <v>300</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="57" customHeight="1">
-      <c r="B31" s="12">
+    <row r="31" spans="2:8" ht="57" customHeight="1">
+      <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="E31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="5">
+        <v>249</v>
+      </c>
     </row>
-    <row r="32" spans="2:9" ht="57" customHeight="1">
-      <c r="B32" s="12">
+    <row r="32" spans="2:8" ht="57" customHeight="1">
+      <c r="B32" s="5">
         <v>30</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="E32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="5">
+        <v>203</v>
+      </c>
     </row>
-    <row r="33" spans="2:7" ht="57" customHeight="1">
-      <c r="B33" s="12">
+    <row r="33" spans="2:8" ht="79" customHeight="1">
+      <c r="B33" s="5">
         <v>31</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="20" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="62" customHeight="1">
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="67" customHeight="1">
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="57" customHeight="1">
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>93</v>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="5">
+        <v>226</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="57" customHeight="1">
-      <c r="B34" s="12">
-        <v>32</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>95</v>
+    <row r="37" spans="2:8" ht="57" customHeight="1">
+      <c r="B37" s="5">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="5">
+        <v>149</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="67" customHeight="1">
-      <c r="B35" s="12">
-        <v>33</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="57" customHeight="1">
-      <c r="B36" s="12">
-        <v>34</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="57" customHeight="1">
-      <c r="B37" s="12">
-        <v>35</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="57" customHeight="1">
-      <c r="B38" s="12">
+    <row r="38" spans="2:8" ht="57" customHeight="1">
+      <c r="B38" s="5">
         <v>36</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="7">
         <v>8</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="57" customHeight="1">
+      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>101</v>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="5">
+        <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="57" customHeight="1">
-      <c r="B39" s="12">
-        <v>37</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="21" t="s">
+    <row r="40" spans="2:8" ht="57" customHeight="1">
+      <c r="B40" s="5">
+        <v>38</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="57" customHeight="1">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>105</v>
+      <c r="E41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="5">
+        <v>121</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="57" customHeight="1">
-      <c r="B40" s="12">
-        <v>38</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>106</v>
+    <row r="42" spans="2:8" ht="57" customHeight="1">
+      <c r="B42" s="5">
+        <v>40</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="5">
+        <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="57" customHeight="1">
-      <c r="B41" s="12">
-        <v>39</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>107</v>
-      </c>
+    <row r="43" spans="2:8" ht="57" customHeight="1">
+      <c r="B43" s="5">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="5"/>
     </row>
-    <row r="42" spans="2:7" ht="57" customHeight="1">
-      <c r="B42" s="12">
-        <v>40</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>108</v>
-      </c>
+    <row r="44" spans="2:8" ht="57" customHeight="1">
+      <c r="B44" s="5">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9">
+        <v>8</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" ht="57" customHeight="1">
+      <c r="B45" s="5">
+        <v>43</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" ht="57" customHeight="1">
+      <c r="B46" s="5">
+        <v>44</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" ht="57" customHeight="1">
+      <c r="B47" s="5">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" ht="57" customHeight="1">
+      <c r="B48" s="5">
+        <v>46</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" ht="57" customHeight="1">
+      <c r="B49" s="5">
+        <v>50</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" ht="57" customHeight="1">
+      <c r="B50" s="5">
+        <v>47</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9">
+        <v>8</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" ht="57" customHeight="1">
+      <c r="B51" s="5">
+        <v>48</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" ht="57" customHeight="1">
+      <c r="B52" s="5">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -4338,10 +5158,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -4353,22 +5175,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -4376,7 +5183,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<woProps xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="https://web.wps.cn/et/2018/main">
+  <woSheetsProps>
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="1">
+      <cellprotection/>
+    </woSheetProps>
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="4">
+      <cellprotection/>
+    </woSheetProps>
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="2">
+      <cellprotection/>
+    </woSheetProps>
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="3">
+      <cellprotection/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0" isFilterShared="1" coreConquerUserId=""/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="https://web.wps.cn/et/2018/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="4"/>
   <pixelatorList sheetStid="2"/>
@@ -4385,36 +5214,14 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
-      <cellprotection/>
-    </woSheetProps>
-    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
-      <cellprotection/>
-    </woSheetProps>
-    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
-      <cellprotection/>
-    </woSheetProps>
-    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
-      <cellprotection/>
-    </woSheetProps>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
-  </woBookProps>
-</woProps>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/doc/目标图例.xlsx
+++ b/doc/目标图例.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanta/Documents/Project/AutocadPrice/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76799C-5753-C149-B83C-9175B6C32646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0270B3F7-4DFA-804B-A1C0-C01BA1AF2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18020" yWindow="880" windowWidth="17980" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -50,6 +51,12 @@
     <t>状态</t>
   </si>
   <si>
+    <t>图例名称</t>
+  </si>
+  <si>
+    <t>已标注数量</t>
+  </si>
+  <si>
     <t>1.5.36</t>
   </si>
   <si>
@@ -62,6 +69,9 @@
     <t>普通照明灯</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>8.9.15</t>
   </si>
   <si>
@@ -206,106 +216,277 @@
     <t>LED集成吸顶灯</t>
   </si>
   <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>嵌入式白色钢板格栅荧光灯</t>
+  </si>
+  <si>
     <t>15-19.21</t>
   </si>
   <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>A型应急照明壁灯</t>
+  </si>
+  <si>
     <t>6.20.29.30.36</t>
   </si>
   <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>带电池的应急照明灯</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>单管荧光灯</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>壁灯</t>
+  </si>
+  <si>
+    <t>1.2.3.4.5.6.10.22.23</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>消防安全出口标志灯</t>
+  </si>
+  <si>
+    <t>9.45.46</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>三管荧光灯</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>消防疏散指示标志灯</t>
+  </si>
+  <si>
+    <t>23.24.25.39.42.47.48</t>
+  </si>
+  <si>
+    <t>ST06</t>
+  </si>
+  <si>
+    <t>单相三极带防溅盖安全型插座</t>
+  </si>
+  <si>
     <t>8.36.37</t>
   </si>
   <si>
-    <t>1.2.3.4.5.6.10.22.23</t>
-  </si>
-  <si>
-    <t>9.45.46</t>
-  </si>
-  <si>
-    <t>23.24.25.39.42.47.48</t>
+    <t>SW06</t>
+  </si>
+  <si>
+    <t>风机调速开关</t>
+  </si>
+  <si>
+    <t>6、9</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>嵌入式乳白面板荧光灯</t>
+  </si>
+  <si>
+    <t>22-26、47-49</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>竖井壁灯</t>
+  </si>
+  <si>
+    <t>56-67、55、46、44-41、39-36</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>疏散出口灯</t>
+  </si>
+  <si>
+    <t>10-12、54-55</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>声光控节能吸顶灯</t>
+  </si>
+  <si>
+    <t>22-25</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>多信息复合标志灯</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>LED面板灯</t>
+  </si>
+  <si>
+    <t>6、8、54、55</t>
+  </si>
+  <si>
+    <t>ST07</t>
+  </si>
+  <si>
+    <t>台面插座</t>
+  </si>
+  <si>
+    <t>15、47-49</t>
+  </si>
+  <si>
+    <t>ST08</t>
+  </si>
+  <si>
+    <t>带保护门单相二、三极IP54型插座</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>ST09</t>
+  </si>
+  <si>
+    <t>单相三极带开关安全型插座</t>
+  </si>
+  <si>
+    <t>15-19、42、47-52</t>
+  </si>
+  <si>
+    <t>ST10</t>
+  </si>
+  <si>
+    <t>单相三极带防溅盖插座</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>6、8</t>
+  </si>
+  <si>
+    <t>27、43-44</t>
+  </si>
+  <si>
+    <t>40、45</t>
+  </si>
+  <si>
+    <t>7、45</t>
+  </si>
+  <si>
+    <t>6、8、29、30、34</t>
+  </si>
+  <si>
+    <t>6、8、29</t>
+  </si>
+  <si>
+    <t>1-5、10-13、15-18、20、26、27</t>
+  </si>
+  <si>
+    <t>单管荧光灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>未标注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>嵌入式白色钢板格栅荧光灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单管荧光灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A型应急照明壁灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>带电池的应急照明灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防安全出口标志灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>三管荧光灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防疏散指示标志灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>壁灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风机调速开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单相三极带防溅盖安全型插座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5防水防尘高效节能双管荧光灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳池用防潮灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单管IP54型LED灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层标志灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双联单控开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联单控开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L26</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L27</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L29</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L31</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>带保护门单相二、三极插座</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -342,7 +523,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -353,28 +540,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -384,44 +559,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,15 +578,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,46 +600,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +655,7 @@
         <xdr:cNvPr id="15133" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECF8DAE-1C87-BBFB-9E82-1EB51C7EA147}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -547,9 +676,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="558800"/>
+          <a:off x="1010920" y="558800"/>
           <a:ext cx="609600" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -600,7 +729,7 @@
         <xdr:cNvPr id="15134" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064A3A7F-2B6C-96EC-8777-773C58E0ECDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -621,9 +750,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="2794000"/>
+          <a:off x="1023620" y="2794000"/>
           <a:ext cx="584200" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -674,7 +803,7 @@
         <xdr:cNvPr id="15135" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD342E5D-CF9A-1A70-1EE4-22FE0A7F2F4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -695,9 +824,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="1333500"/>
+          <a:off x="1010920" y="1333500"/>
           <a:ext cx="584200" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -739,7 +868,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>698500</xdr:rowOff>
     </xdr:to>
@@ -748,7 +877,7 @@
         <xdr:cNvPr id="15136" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE650ED-6881-0CD0-00EC-370D9AC60596}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000203B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,10 +898,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="5626100"/>
-          <a:ext cx="723900" cy="685800"/>
+          <a:off x="1036320" y="5626100"/>
+          <a:ext cx="718185" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,7 +951,7 @@
         <xdr:cNvPr id="15137" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3080A414-7788-87A6-6D49-E5F5F0A97E40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000213B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,9 +972,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="4216400"/>
+          <a:off x="1010920" y="4216400"/>
           <a:ext cx="685800" cy="660400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -896,7 +1025,7 @@
         <xdr:cNvPr id="15138" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D07B11-C9B6-D989-6570-9F0AB00F5315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000223B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,9 +1046,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="4927600"/>
+          <a:off x="1023620" y="4927600"/>
           <a:ext cx="660400" cy="660400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -970,7 +1099,7 @@
         <xdr:cNvPr id="15139" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3620800-5058-13AE-B6C8-83C374ED0E04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000233B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,9 +1120,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="2057400"/>
+          <a:off x="1023620" y="2057400"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1044,7 +1173,7 @@
         <xdr:cNvPr id="15140" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78E6EE6-FD6F-CD4E-46EE-1B188A56E8CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000243B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,9 +1194,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="3543300"/>
+          <a:off x="1036320" y="3543300"/>
           <a:ext cx="533400" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1118,7 +1247,7 @@
         <xdr:cNvPr id="15141" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D186E7-02A2-3DEA-6D01-DF9EA66906B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000253B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,9 +1268,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1123950" y="7181850"/>
+          <a:off x="1055370" y="7181850"/>
           <a:ext cx="609600" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1192,7 +1321,7 @@
         <xdr:cNvPr id="15142" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D277E6A-B7E8-D338-BA19-7936D860CA88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000263B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,9 +1342,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="6400800"/>
+          <a:off x="1023620" y="6400800"/>
           <a:ext cx="673100" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1266,7 +1395,7 @@
         <xdr:cNvPr id="15143" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E1CB0E-B357-83AB-9B09-D64C8157F83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000273B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,9 +1416,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="10058400"/>
+          <a:off x="1087120" y="10058400"/>
           <a:ext cx="596900" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1340,7 +1469,7 @@
         <xdr:cNvPr id="15144" name="图片 5" descr="clipboard/drawings/NULL">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70726ED-9313-CE6C-5093-893B90BB11F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000283B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,9 +1490,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="7874000"/>
+          <a:off x="1036320" y="7874000"/>
           <a:ext cx="711200" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1414,7 +1543,7 @@
         <xdr:cNvPr id="15145" name="图片 13" descr="clipboard/drawings/NULL">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A24F6E2-54D0-6ABD-430C-C43C1045D19D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000293B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,9 +1564,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181100" y="9309100"/>
+          <a:off x="1112520" y="9309100"/>
           <a:ext cx="520700" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1488,7 +1617,7 @@
         <xdr:cNvPr id="15146" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D9D5C3-ACCA-D532-3DA5-C972E48CA360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,9 +1638,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1168400" y="10795000"/>
+          <a:off x="1099820" y="10795000"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1562,7 +1691,7 @@
         <xdr:cNvPr id="15147" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3551AB1D-F112-A978-4A1E-B845C14B55C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,9 +1712,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="8610600"/>
+          <a:off x="1087120" y="8610600"/>
           <a:ext cx="584200" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1636,7 +1765,7 @@
         <xdr:cNvPr id="15148" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF670BBB-5EA9-B677-F0D9-41974372901E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,9 +1786,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117600" y="11607800"/>
+          <a:off x="1049020" y="11607800"/>
           <a:ext cx="685800" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1710,7 +1839,7 @@
         <xdr:cNvPr id="15149" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA496C8-5BFC-5050-09AB-C086318C06F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,9 +1860,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117600" y="12230100"/>
+          <a:off x="1049020" y="12230100"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1784,7 +1913,7 @@
         <xdr:cNvPr id="15150" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52997B5C-2663-76B9-D694-8E4174470CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,9 +1934,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="12915900"/>
+          <a:off x="1087120" y="12915900"/>
           <a:ext cx="622300" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1858,7 +1987,7 @@
         <xdr:cNvPr id="15151" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1AA666-3C3D-4937-1A89-521C96ACFDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,9 +2008,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="13677900"/>
+          <a:off x="1061720" y="13677900"/>
           <a:ext cx="622300" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1932,7 +2061,7 @@
         <xdr:cNvPr id="15152" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD09197-30D4-2768-15BF-AB9587BC0135}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000303B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,9 +2082,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="14389100"/>
+          <a:off x="1074420" y="14389100"/>
           <a:ext cx="558800" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1997,7 +2126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>622300</xdr:rowOff>
     </xdr:to>
@@ -2006,7 +2135,7 @@
         <xdr:cNvPr id="15153" name="ID_9B916DC2518547968BFBB92D30188C9F" descr="post_object_image_3236302596">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA8CFD0-B5BF-2032-1D74-21A314EDD270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000313B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,10 +2156,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="15138400"/>
-          <a:ext cx="800100" cy="508000"/>
+          <a:off x="985520" y="15138400"/>
+          <a:ext cx="768985" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2080,7 +2209,7 @@
         <xdr:cNvPr id="15154" name="ID_95CA2C1EEDC340F4B9C8E000509C894C" descr="post_object_image_3936521572">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E632DB03-66E6-A2D9-F15D-69DDC3AECF00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000323B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,9 +2230,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="15824200"/>
+          <a:off x="1074420" y="15824200"/>
           <a:ext cx="622300" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2154,7 +2283,7 @@
         <xdr:cNvPr id="15155" name="ID_3556FE89E3E54A5C8AB43D3D03540C3D" descr="post_object_image_110019359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631E9E29-90A2-E98F-5175-1D771BD5D817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000333B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,9 +2304,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1193800" y="16560800"/>
+          <a:off x="1125220" y="16560800"/>
           <a:ext cx="533400" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2219,7 +2348,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
@@ -2228,7 +2357,7 @@
         <xdr:cNvPr id="15156" name="ID_5F705C35F5DF49109EB4F07D61A19494" descr="post_object_image_995363406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033BA654-3D34-901C-E5E7-C4749D59DBEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000343B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,10 +2378,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="17348200"/>
-          <a:ext cx="825500" cy="431800"/>
+          <a:off x="972820" y="17348200"/>
+          <a:ext cx="781685" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,22 +2416,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>82550</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>791210</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>716280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15157" name="ID_51056531B1FA49D7A47F0B7B8A3065B6" descr="post_object_image_2880011336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BBF7D5-BA92-445D-77CA-41B08D21B831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000353B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,10 +2452,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="17932400"/>
-          <a:ext cx="736600" cy="711200"/>
+          <a:off x="1042670" y="21570950"/>
+          <a:ext cx="708660" cy="684530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2367,7 +2496,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -2376,7 +2505,7 @@
         <xdr:cNvPr id="15158" name="ID_50FDE6A10835448F83B1D7C424F48C11" descr="post_object_image_2426209249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830334EC-8635-B341-D4EA-6925D9F3494A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000363B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,10 +2526,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="18770600"/>
-          <a:ext cx="825500" cy="482600"/>
+          <a:off x="972820" y="18770600"/>
+          <a:ext cx="781685" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2441,7 +2570,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
@@ -2450,7 +2579,7 @@
         <xdr:cNvPr id="15159" name="ID_B01182263F1643B98B71813FF07F29E6" descr="post_object_image_3878844623">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F72E53C-A6CC-010D-F58F-ED1D0CE23C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000373B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,10 +2600,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="19570700"/>
-          <a:ext cx="825500" cy="330200"/>
+          <a:off x="972820" y="19570700"/>
+          <a:ext cx="781685" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2515,7 +2644,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
@@ -2524,7 +2653,7 @@
         <xdr:cNvPr id="15160" name="ID_4B6CAFD331704D0597B49C81AF7EB194" descr="post_object_image_1772245933">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93FC3E8-890D-A4C1-F19A-017E8C55F2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000383B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,10 +2674,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="20243800"/>
-          <a:ext cx="825500" cy="431800"/>
+          <a:off x="972820" y="20243800"/>
+          <a:ext cx="781685" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2589,7 +2718,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
@@ -2598,7 +2727,7 @@
         <xdr:cNvPr id="15161" name="ID_44A55EBC00F94EACB1BA1D21DAF69101" descr="post_object_image_59107625">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F563FA77-E390-AB75-F8A1-347B752E61DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000393B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,10 +2748,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="20853400"/>
-          <a:ext cx="825500" cy="647700"/>
+          <a:off x="972820" y="20853400"/>
+          <a:ext cx="781685" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2663,7 +2792,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2672,7 +2801,7 @@
         <xdr:cNvPr id="15162" name="ID_58E6F0E1878A452CA0C97EB693C5B5C9" descr="post_object_image_2930752091">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB28DEA-3C20-C666-7E6D-C386A95787F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A3B0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,10 +2822,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="21615400"/>
-          <a:ext cx="825500" cy="647700"/>
+          <a:off x="972820" y="17995900"/>
+          <a:ext cx="781685" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2724,6 +2853,966 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>756920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1068070" y="22348825"/>
+          <a:ext cx="648970" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1039495" y="23275925"/>
+          <a:ext cx="715010" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>705485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="991870" y="27847925"/>
+          <a:ext cx="762635" cy="657860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>643890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="995045" y="24253825"/>
+          <a:ext cx="759460" cy="443865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>751840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1001395" y="27133550"/>
+          <a:ext cx="710565" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>671830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="991870" y="28571825"/>
+          <a:ext cx="762635" cy="624205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>690880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1029970" y="29295725"/>
+          <a:ext cx="714375" cy="643255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>775335</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>706755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1010920" y="24942800"/>
+          <a:ext cx="724535" cy="668655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>592455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1010920" y="25761950"/>
+          <a:ext cx="743585" cy="459105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>683895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="982345" y="26381075"/>
+          <a:ext cx="771525" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1087120" y="30048200"/>
+          <a:ext cx="571500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>775970</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>570230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1020445" y="30848300"/>
+          <a:ext cx="715645" cy="417830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>785495</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>581660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1001395" y="31524575"/>
+          <a:ext cx="744220" cy="476885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>461645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1029970" y="32296100"/>
+          <a:ext cx="724535" cy="309245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>573405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1163320" y="32972375"/>
+          <a:ext cx="476885" cy="468630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>514985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077595" y="33782000"/>
+          <a:ext cx="629285" cy="324485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>619760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1106170" y="34343975"/>
+          <a:ext cx="590550" cy="591185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781685</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>648335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077595" y="35172650"/>
+          <a:ext cx="664210" cy="514985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>756920</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>570865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1039495" y="35839400"/>
+          <a:ext cx="677545" cy="494665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" r:link="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="991870" y="36553775"/>
+          <a:ext cx="723900" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2981,591 +4070,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I32"/>
+  <dimension ref="B1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="57" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="247" width="11.1640625" customWidth="1"/>
-    <col min="248" max="248" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="245" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" customHeight="1"/>
-    <row r="2" spans="2:7" ht="27" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:8" ht="16" customHeight="1"/>
+    <row r="2" spans="2:8" ht="27" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" ht="57" customHeight="1">
-      <c r="B3" s="3">
+    <row r="3" spans="2:8" ht="57" customHeight="1">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="57" customHeight="1">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="57" customHeight="1">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="57" customHeight="1">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="57" customHeight="1">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="57" customHeight="1">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="57" customHeight="1">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="57" customHeight="1">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5">
+        <v>422</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="57" customHeight="1">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+    <row r="11" spans="2:8" ht="57" customHeight="1">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
+        <v>23.24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="57" customHeight="1">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7">
+        <v>23.24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="57" customHeight="1">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5">
+        <v>563</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" ht="57" customHeight="1">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3">
+    <row r="14" spans="2:8" ht="57" customHeight="1">
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="57" customHeight="1">
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="57" customHeight="1">
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="57" customHeight="1">
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="57" customHeight="1">
+      <c r="B18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7">
+        <v>26.27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="57" customHeight="1">
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="57" customHeight="1">
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="57" customHeight="1">
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="57" customHeight="1">
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="57" customHeight="1">
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="57" customHeight="1">
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="57" customHeight="1">
+      <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="5">
+        <v>227</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="57" customHeight="1">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
+    <row r="26" spans="2:8" ht="57" customHeight="1">
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7">
+        <v>9.23</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="5">
+        <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="57" customHeight="1">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
+    <row r="27" spans="2:8" ht="57" customHeight="1">
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7">
+        <v>36.369999999999997</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="5">
+        <v>288</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="57" customHeight="1">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    <row r="28" spans="2:8" ht="57" customHeight="1">
+      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="57" customHeight="1">
+      <c r="B29" s="5">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="57" customHeight="1">
+      <c r="B30" s="5">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7">
         <v>22</v>
       </c>
+      <c r="E30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="5">
+        <v>300</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" ht="57" customHeight="1">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="57" customHeight="1">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3">
-        <v>22.1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="57" customHeight="1">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3">
-        <v>23.24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="57" customHeight="1">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3">
-        <v>23.24</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    <row r="31" spans="2:8" ht="57" customHeight="1">
+      <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="57" customHeight="1">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="57" customHeight="1">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="57" customHeight="1">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="57" customHeight="1">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="57" customHeight="1">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="57" customHeight="1">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3">
-        <v>26.27</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="57" customHeight="1">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="57" customHeight="1">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="57" customHeight="1">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="57" customHeight="1">
-      <c r="B22" s="6">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="57" customHeight="1">
-      <c r="B23" s="8">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8">
-        <v>8</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="57" customHeight="1">
-      <c r="B24" s="8">
-        <v>22</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="57" customHeight="1">
-      <c r="B25" s="8">
-        <v>23</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="57" customHeight="1">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8">
-        <v>9.23</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="57" customHeight="1">
-      <c r="B27" s="8">
-        <v>25</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8">
-        <v>36.369999999999997</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="57" customHeight="1">
-      <c r="B28" s="8">
-        <v>26</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="2:9" ht="57" customHeight="1">
-      <c r="B29" s="8">
-        <v>27</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="57" customHeight="1">
-      <c r="B30" s="8">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8">
-        <v>22</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="57" customHeight="1">
-      <c r="B31" s="8">
-        <v>29</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>63</v>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="57" customHeight="1">
+      <c r="B32" s="5">
+        <v>30</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="E32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="5">
+        <v>203</v>
+      </c>
     </row>
-    <row r="32" spans="2:9" ht="57" customHeight="1">
-      <c r="B32" s="8">
-        <v>30</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>73</v>
-      </c>
+    <row r="33" spans="2:8" ht="79" customHeight="1">
+      <c r="B33" s="5">
+        <v>31</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="62" customHeight="1">
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="67" customHeight="1">
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="57" customHeight="1">
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="57" customHeight="1">
+      <c r="B37" s="5">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="57" customHeight="1">
+      <c r="B38" s="5">
+        <v>36</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="57" customHeight="1">
+      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="57" customHeight="1">
+      <c r="B40" s="5">
+        <v>38</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="57" customHeight="1">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="57" customHeight="1">
+      <c r="B42" s="5">
+        <v>40</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="57" customHeight="1">
+      <c r="B43" s="5">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" ht="57" customHeight="1">
+      <c r="B44" s="5">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9">
+        <v>8</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" ht="57" customHeight="1">
+      <c r="B45" s="5">
+        <v>43</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" ht="57" customHeight="1">
+      <c r="B46" s="5">
+        <v>44</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" ht="57" customHeight="1">
+      <c r="B47" s="5">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" ht="57" customHeight="1">
+      <c r="B48" s="5">
+        <v>46</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" ht="57" customHeight="1">
+      <c r="B49" s="5">
+        <v>50</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" ht="57" customHeight="1">
+      <c r="B50" s="5">
+        <v>47</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9">
+        <v>8</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" ht="57" customHeight="1">
+      <c r="B51" s="5">
+        <v>48</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" ht="57" customHeight="1">
+      <c r="B52" s="5">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3577,10 +5158,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -3588,56 +5171,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<woProps xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="https://web.wps.cn/et/2018/main">
   <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="1">
       <cellprotection/>
     </woSheetProps>
-    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="4">
       <cellprotection/>
     </woSheetProps>
-    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="2">
       <cellprotection/>
     </woSheetProps>
-    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0">
+    <woSheetProps isDbDashBoardSheet="0" interlineColor="0" isDbSheet="0" interlineOnOff="0" isDashBoardSheet="0" sheetStid="3">
       <cellprotection/>
     </woSheetProps>
   </woSheetsProps>
   <woBookProps>
-    <bookSettings isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+    <bookSettings isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0" isFilterShared="1" coreConquerUserId=""/>
   </woBookProps>
 </woProps>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<pixelators xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="https://web.wps.cn/et/2018/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="4"/>
   <pixelatorList sheetStid="2"/>
